--- a/output/downloads/hgfg/海关法规.xlsx
+++ b/output/downloads/hgfg/海关法规.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>关于进口冈比亚花生植物检疫要求的公告</t>
+          <t>关于调整中国海关贸易景气调查样本企业的公告</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,21 +503,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6630330/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6633724/index.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>149</v>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -525,28 +527,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-16_关于进口冈比亚花生植物检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-18_关于调整中国海关贸易景气调查样本企业的公告.zip</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['海关总署关于进口冈比亚花生植物检疫要求的公告.doc', '海关总署关于进口冈比亚花生植物检疫要求的公告.pdf']</t>
+          <t>['1.新一轮样本企业名单（出口）.xls', '2.新一轮样本企业名单（进口）.xls', '3.中国海关贸易景气统计调查表式.doc', '海关总署关于调整中国海关贸易景气调查样本企业的公告.doc', '海关总署关于调整中国海关贸易景气调查样本企业的公告.pdf']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-07-16-149</t>
+          <t>海关总署-2025-07-18-151</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告</t>
+          <t>关于开展2025年度法定检验以外进出口商品抽查检验工作的公告</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -556,21 +558,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6629910/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6633110/index.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>148</v>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -578,28 +582,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-16_关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-17_关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.zip</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['1.2025年第八届中国国际进口博览会海关通关须知.docx', '2.海关支持2025年第八届中国国际进口博览会便利措施.docx', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.doc', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.pdf']</t>
+          <t>['实施法定检验以外进出口商品抽查检验的商品范围.doc', '海关总署关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.doc', '海关总署关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.pdf']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-07-16-148</t>
+          <t>海关总署-2025-07-17-150</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>关于进口散装食用植物油贮存运输有关要求的公告</t>
+          <t>关于进口马拉维夏威夷果检验检疫和卫生要求的公告</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -609,21 +613,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6627988/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603377/index.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>147</v>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -631,28 +637,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-15_关于进口散装食用植物油贮存运输有关要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于进口马拉维夏威夷果检验检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['1.食品法典可接受的曾运货物清单.docx', '2.食品法典禁止的最近曾运货物清单.docx', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.doc', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.pdf']</t>
+          <t>['海关总署关于进口马拉维夏威夷果检验检疫和卫生要求的公告.doc', '海关总署关于进口马拉维夏威夷果检验检疫和卫生要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-07-15-147</t>
+          <t>海关总署-2025-06-26-136</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>关于开展报关单证及电子数据自助查询打印试点的公告</t>
+          <t>关于进口冈比亚腰果检验检疫和卫生要求的公告</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -662,21 +668,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620888/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603308/index.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>146</v>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -688,24 +696,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-08_关于开展报关单证及电子数据自助查询打印试点的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-25_关于进口冈比亚腰果检验检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['海关总署关于开展报关单证及电子数据自助查询打印试点的公告.doc', '海关总署关于开展报关单证及电子数据自助查询打印试点的公告.pdf']</t>
+          <t>['海关总署关于进口冈比亚腰果检验检疫和卫生要求的公告.doc', '海关总署关于进口冈比亚腰果检验检疫和卫生要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-07-08-146</t>
+          <t>海关总署-2025-06-25-135</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
+          <t>关于进口冈比亚花生植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -715,21 +723,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620785/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6630330/index.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>145</v>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -741,24 +751,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-03_关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-16_关于进口冈比亚花生植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.doc', '海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.pdf']</t>
+          <t>['海关总署关于进口冈比亚花生植物检疫要求的公告.doc', '海关总署关于进口冈比亚花生植物检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-07-03-145</t>
+          <t>海关总署-2025-07-16-149</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告</t>
+          <t>关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -768,21 +778,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6610207/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6629910/index.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>144</v>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -790,28 +802,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-02_关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-16_关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.zip</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.doc', '海关总署 农业农村部关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.pdf']</t>
+          <t>['1.2025年第八届中国国际进口博览会海关通关须知.docx', '2.海关支持2025年第八届中国国际进口博览会便利措施.docx', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.doc', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.pdf']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-07-02-144</t>
+          <t>海关总署-2025-07-16-148</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告</t>
+          <t>关于进口散装食用植物油贮存运输有关要求的公告</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -821,21 +833,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6608554/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6627988/index.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>143</v>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -843,28 +857,28 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-01_关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-15_关于进口散装食用植物油贮存运输有关要求的公告.zip</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['海关总署关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.doc', '海关总署关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.pdf']</t>
+          <t>['1.食品法典可接受的曾运货物清单.docx', '2.食品法典禁止的最近曾运货物清单.docx', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.doc', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-07-01-143</t>
+          <t>海关总署-2025-07-15-147</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>关于废止和宣布失效部分规范性文件（三）的公告</t>
+          <t>关于开展报关单证及电子数据自助查询打印试点的公告</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -874,21 +888,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606691/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620888/index.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>142</v>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -896,28 +912,28 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-01_关于废止和宣布失效部分规范性文件（三）的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-08_关于开展报关单证及电子数据自助查询打印试点的公告.zip</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['1.废止的规范性文件目录.xlsx', '2.宣布失效的规范性文件目录.xlsx', '海关总署关于废止和宣布失效部分规范性文件（三）的公告.doc', '海关总署关于废止和宣布失效部分规范性文件（三）的公告.pdf']</t>
+          <t>['海关总署关于开展报关单证及电子数据自助查询打印试点的公告.doc', '海关总署关于开展报关单证及电子数据自助查询打印试点的公告.pdf']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-07-01-142</t>
+          <t>海关总署-2025-07-08-146</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告</t>
+          <t>关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -927,21 +943,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606678/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620785/index.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>141</v>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -949,28 +967,28 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-30_关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-03_关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['1.海关稽查、涉企贸易调查法律文书.doc', '2.海关核查法律文书.doc', '海关总署关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.doc', '海关总署关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.pdf']</t>
+          <t>['海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.doc', '海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-06-30-141</t>
+          <t>海关总署-2025-07-03-145</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>关于有条件恢复日本部分地区水产品进口的公告</t>
+          <t>关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -980,21 +998,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6602977/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6610207/index.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>140</v>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1006,24 +1026,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-29_关于有条件恢复日本部分地区水产品进口的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-02_关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['海关总署关于有条件恢复日本部分地区水产品进口的公告.doc', '海关总署关于有条件恢复日本部分地区水产品进口的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.doc', '海关总署 农业农村部关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-06-29-140</t>
+          <t>海关总署-2025-07-02-144</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>关于调整加工贸易限制类商品保证金利率的公告</t>
+          <t>关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1033,21 +1053,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606668/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6608554/index.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>139</v>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1059,24 +1081,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-27_关于调整加工贸易限制类商品保证金利率的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-01_关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.zip</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['海关总署关于调整加工贸易限制类商品保证金利率的公告.doc', '海关总署关于调整加工贸易限制类商品保证金利率的公告.pdf']</t>
+          <t>['海关总署关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.doc', '海关总署关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.pdf']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-06-27-139</t>
+          <t>海关总署-2025-07-01-143</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>关于优化出口货物申报前检验检疫申请的公告</t>
+          <t>关于废止和宣布失效部分规范性文件（三）的公告</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1086,21 +1108,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603400/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606691/index.html</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>138</v>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1108,28 +1132,28 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于优化出口货物申报前检验检疫申请的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-01_关于废止和宣布失效部分规范性文件（三）的公告.zip</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['海关总署关于优化出口货物申报前检验检疫申请的公告.doc', '海关总署关于优化出口货物申报前检验检疫申请的公告.pdf']</t>
+          <t>['1.废止的规范性文件目录.xlsx', '2.宣布失效的规范性文件目录.xlsx', '海关总署关于废止和宣布失效部分规范性文件（三）的公告.doc', '海关总署关于废止和宣布失效部分规范性文件（三）的公告.pdf']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-06-26-138</t>
+          <t>海关总署-2025-07-01-142</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>关于香港输内地乳品检验检疫和卫生要求的公告</t>
+          <t>关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1139,21 +1163,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603391/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606678/index.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>137</v>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1161,28 +1187,28 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于香港输内地乳品检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-30_关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.zip</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['海关总署关于香港输内地乳品检验检疫和卫生要求的公告.doc', '海关总署关于香港输内地乳品检验检疫和卫生要求的公告.pdf']</t>
+          <t>['1.海关稽查、涉企贸易调查法律文书.doc', '2.海关核查法律文书.doc', '海关总署关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.doc', '海关总署关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.pdf']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-06-26-137</t>
+          <t>海关总署-2025-06-30-141</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>关于进口马拉维夏威夷果检验检疫和卫生要求的公告</t>
+          <t>关于有条件恢复日本部分地区水产品进口的公告</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1192,21 +1218,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603377/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6602977/index.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>136</v>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1218,24 +1246,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于进口马拉维夏威夷果检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-29_关于有条件恢复日本部分地区水产品进口的公告.zip</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['海关总署关于进口马拉维夏威夷果检验检疫和卫生要求的公告.doc', '海关总署关于进口马拉维夏威夷果检验检疫和卫生要求的公告.pdf']</t>
+          <t>['海关总署关于有条件恢复日本部分地区水产品进口的公告.doc', '海关总署关于有条件恢复日本部分地区水产品进口的公告.pdf']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-06-26-136</t>
+          <t>海关总署-2025-06-29-140</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>关于进口冈比亚腰果检验检疫和卫生要求的公告</t>
+          <t>关于调整加工贸易限制类商品保证金利率的公告</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1245,21 +1273,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603308/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606668/index.html</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>135</v>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1271,24 +1301,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-25_关于进口冈比亚腰果检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-27_关于调整加工贸易限制类商品保证金利率的公告.zip</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['海关总署关于进口冈比亚腰果检验检疫和卫生要求的公告.doc', '海关总署关于进口冈比亚腰果检验检疫和卫生要求的公告.pdf']</t>
+          <t>['海关总署关于调整加工贸易限制类商品保证金利率的公告.doc', '海关总署关于调整加工贸易限制类商品保证金利率的公告.pdf']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-06-25-135</t>
+          <t>海关总署-2025-06-27-139</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>关于进口冈比亚花生植物检疫要求的公告</t>
+          <t>关于优化出口货物申报前检验检疫申请的公告</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1298,22 +1328,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6630330/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603400/index.html</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>138</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1326,24 +1356,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-16_关于进口冈比亚花生植物检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于优化出口货物申报前检验检疫申请的公告.zip</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['海关总署关于进口冈比亚花生植物检疫要求的公告.doc', '海关总署关于进口冈比亚花生植物检疫要求的公告.pdf']</t>
+          <t>['海关总署关于优化出口货物申报前检验检疫申请的公告.doc', '海关总署关于优化出口货物申报前检验检疫申请的公告.pdf']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-07-16-149</t>
+          <t>海关总署-2025-06-26-138</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告</t>
+          <t>关于香港输内地乳品检验检疫和卫生要求的公告</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1353,22 +1383,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6629910/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603391/index.html</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>137</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1377,28 +1407,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-16_关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于香港输内地乳品检验检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['1.2025年第八届中国国际进口博览会海关通关须知.docx', '2.海关支持2025年第八届中国国际进口博览会便利措施.docx', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.doc', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.pdf']</t>
+          <t>['海关总署关于香港输内地乳品检验检疫和卫生要求的公告.doc', '海关总署关于香港输内地乳品检验检疫和卫生要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-07-16-148</t>
+          <t>海关总署-2025-06-26-137</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>关于进口散装食用植物油贮存运输有关要求的公告</t>
+          <t>关于防止阿尔及利亚绵羊痘和山羊痘传入我国的公告</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1408,22 +1438,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6627988/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603269/index.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>134</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1432,28 +1462,28 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-15_关于进口散装食用植物油贮存运输有关要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止阿尔及利亚绵羊痘和山羊痘传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['1.食品法典可接受的曾运货物清单.docx', '2.食品法典禁止的最近曾运货物清单.docx', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.doc', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止阿尔及利亚绵羊痘和山羊痘传入我国的公告.doc', '海关总署 农业农村部关于防止阿尔及利亚绵羊痘和山羊痘传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-07-15-147</t>
+          <t>海关总署-2025-06-23-134</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>关于开展报关单证及电子数据自助查询打印试点的公告</t>
+          <t>关于防止西班牙、意大利痒病传入我国的公告</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1463,22 +1493,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620888/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596542/index.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>133</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1491,24 +1521,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-08_关于开展报关单证及电子数据自助查询打印试点的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止西班牙、意大利痒病传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['海关总署关于开展报关单证及电子数据自助查询打印试点的公告.doc', '海关总署关于开展报关单证及电子数据自助查询打印试点的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止西班牙、意大利痒病传入我国的公告.doc', '海关总署 农业农村部关于防止西班牙、意大利痒病传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-07-08-146</t>
+          <t>海关总署-2025-06-23-133</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
+          <t>关于防止沙特阿拉伯、几内亚比绍小反刍兽疫传入我国的公告</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1518,22 +1548,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620785/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596538/index.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>132</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1546,24 +1576,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-03_关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止沙特阿拉伯、几内亚比绍小反刍兽疫传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.doc', '海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止沙特阿拉伯、几内亚比绍小反刍兽疫传入我国的公告.doc', '海关总署 农业农村部关于防止沙特阿拉伯、几内亚比绍小反刍兽疫传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-07-03-145</t>
+          <t>海关总署-2025-06-23-132</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告</t>
+          <t>关于防止乌干达口蹄疫传入我国的公告</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1573,22 +1603,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6610207/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596531/index.html</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1601,24 +1631,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-02_关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止乌干达口蹄疫传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.doc', '海关总署 农业农村部关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止乌干达口蹄疫传入我国的公告.doc', '海关总署 农业农村部关于防止乌干达口蹄疫传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2025-07-02-144</t>
+          <t>海关总署-2025-06-23-131</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告</t>
+          <t>关于防止乌干达、几内亚比绍新城疫传入我国的公告</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1628,22 +1658,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6608554/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596527/index.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1656,24 +1686,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-01_关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止乌干达、几内亚比绍新城疫传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['海关总署关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.doc', '海关总署关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止乌干达、几内亚比绍新城疫传入我国的公告.doc', '海关总署 农业农村部关于防止乌干达、几内亚比绍新城疫传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2025-07-01-143</t>
+          <t>海关总署-2025-06-23-130</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>关于废止和宣布失效部分规范性文件（三）的公告</t>
+          <t>关于进口哈萨克斯坦甜菜粕检验检疫要求的公告</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1683,22 +1713,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606691/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596522/index.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1707,28 +1737,28 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-01_关于废止和宣布失效部分规范性文件（三）的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于进口哈萨克斯坦甜菜粕检验检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['1.废止的规范性文件目录.xlsx', '2.宣布失效的规范性文件目录.xlsx', '海关总署关于废止和宣布失效部分规范性文件（三）的公告.doc', '海关总署关于废止和宣布失效部分规范性文件（三）的公告.pdf']</t>
+          <t>['海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告.doc', '海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2025-07-01-142</t>
+          <t>海关总署-2025-06-23-129</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告</t>
+          <t>关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1738,22 +1768,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606678/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6594532/index.html</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>128</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1762,28 +1792,28 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-30_关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告.zip</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['1.海关稽查、涉企贸易调查法律文书.doc', '2.海关核查法律文书.doc', '海关总署关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.doc', '海关总署关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.pdf']</t>
+          <t>['海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告.doc', '海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告.pdf']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2025-06-30-141</t>
+          <t>海关总署-2025-06-23-128</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>关于有条件恢复日本部分地区水产品进口的公告</t>
+          <t>关于启用进出境邮件“一站式”办理平台有关事宜的公告</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1793,22 +1823,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6602977/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6594524/index.html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>127</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1821,24 +1851,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-29_关于有条件恢复日本部分地区水产品进口的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于启用进出境邮件“一站式”办理平台有关事宜的公告.zip</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['海关总署关于有条件恢复日本部分地区水产品进口的公告.doc', '海关总署关于有条件恢复日本部分地区水产品进口的公告.pdf']</t>
+          <t>['海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告.doc', '海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告.pdf']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2025-06-29-140</t>
+          <t>海关总署-2025-06-23-127</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>关于调整加工贸易限制类商品保证金利率的公告</t>
+          <t>关于废止部分进口食品类规范性文件的公告</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1848,22 +1878,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606668/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6593701/index.html</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>126</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1872,28 +1902,28 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-27_关于调整加工贸易限制类商品保证金利率的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-19_关于废止部分进口食品类规范性文件的公告.zip</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['海关总署关于调整加工贸易限制类商品保证金利率的公告.doc', '海关总署关于调整加工贸易限制类商品保证金利率的公告.pdf']</t>
+          <t>['废止的规范性文件目录.xls', '海关总署关于废止部分进口食品类规范性文件的公告.doc', '海关总署关于废止部分进口食品类规范性文件的公告.pdf']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2025-06-27-139</t>
+          <t>海关总署-2025-06-19-126</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>关于优化出口货物申报前检验检疫申请的公告</t>
+          <t>关于防止阿尔巴尼亚小反刍兽疫传入我国的公告</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1903,22 +1933,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603400/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6593634/index.html</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>125</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1931,24 +1961,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于优化出口货物申报前检验检疫申请的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-17_关于防止阿尔巴尼亚小反刍兽疫传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['海关总署关于优化出口货物申报前检验检疫申请的公告.doc', '海关总署关于优化出口货物申报前检验检疫申请的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止阿尔巴尼亚小反刍兽疫传入我国的公告.doc', '海关总署 农业农村部关于防止阿尔巴尼亚小反刍兽疫传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2025-06-26-138</t>
+          <t>海关总署-2025-06-17-125</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>关于香港输内地乳品检验检疫和卫生要求的公告</t>
+          <t>关于防止拉脱维亚高致病性禽流感传入我国的公告</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1958,22 +1988,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603391/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6593619/index.html</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1986,24 +2016,24 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于香港输内地乳品检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-16_关于防止拉脱维亚高致病性禽流感传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['海关总署关于香港输内地乳品检验检疫和卫生要求的公告.doc', '海关总署关于香港输内地乳品检验检疫和卫生要求的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止拉脱维亚高致病性禽流感传入我国的公告.doc', '海关总署 农业农村部关于防止拉脱维亚高致病性禽流感传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2025-06-26-137</t>
+          <t>海关总署-2025-06-16-124</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>关于进口马拉维夏威夷果检验检疫和卫生要求的公告</t>
+          <t>关于两用物项出口管制海关质疑有关事项的公告</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2013,22 +2043,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603377/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6581237/index.html</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>123</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2037,28 +2067,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于进口马拉维夏威夷果检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-16_关于两用物项出口管制海关质疑有关事项的公告.zip</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['海关总署关于进口马拉维夏威夷果检验检疫和卫生要求的公告.doc', '海关总署关于进口马拉维夏威夷果检验检疫和卫生要求的公告.pdf']</t>
+          <t>['1.两用物项出口管制海关质疑通知书.docx', '2.两用物项出口管制海关质疑组织鉴别结果告知书／组织鉴别结果告知书.docx', '海关总署关于两用物项出口管制海关质疑有关事项的公告.doc', '海关总署关于两用物项出口管制海关质疑有关事项的公告.pdf']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2025-06-26-136</t>
+          <t>海关总署-2025-06-16-123</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>关于进口冈比亚腰果检验检疫和卫生要求的公告</t>
+          <t>关于进口沙特养殖水产品检验检疫和卫生要求的公告</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2068,22 +2098,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603308/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6582961/index.html</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>122</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2092,21 +2122,21 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-25_关于进口冈比亚腰果检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-13_关于进口沙特养殖水产品检验检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['海关总署关于进口冈比亚腰果检验检疫和卫生要求的公告.doc', '海关总署关于进口冈比亚腰果检验检疫和卫生要求的公告.pdf']</t>
+          <t>['沙特阿拉伯王国新增输华养殖水产品信息表.doc', '海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告.doc', '海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2025-06-25-135</t>
+          <t>海关总署-2025-06-13-122</t>
         </is>
       </c>
     </row>

--- a/output/downloads/hgfg/海关法规.xlsx
+++ b/output/downloads/hgfg/海关法规.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>关于调整中国海关贸易景气调查样本企业的公告</t>
+          <t>关于发布《海南自由贸易港进口货物海关径予放行管理规定》的公告</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,52 +503,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6633724/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6697219/index.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>172</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-18_关于调整中国海关贸易景气调查样本企业的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-25_关于发布《海南自由贸易港进口货物海关径予放行管理规定》的公告.zip</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['1.新一轮样本企业名单（出口）.xls', '2.新一轮样本企业名单（进口）.xls', '3.中国海关贸易景气统计调查表式.doc', '海关总署关于调整中国海关贸易景气调查样本企业的公告.doc', '海关总署关于调整中国海关贸易景气调查样本企业的公告.pdf']</t>
+          <t>['径予放行货物填报栏目.docx', '海关总署关于发布《海南自由贸易港进口货物海关径予放行管理规定》的公告.doc', '海关总署关于发布《海南自由贸易港进口货物海关径予放行管理规定》的公告.pdf']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-18-151</t>
+          <t>海关总署-2025-08-25-172</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>关于开展2025年度法定检验以外进出口商品抽查检验工作的公告</t>
+          <t>关于进口哥斯达黎加鲜食甜瓜植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -558,27 +558,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6633110/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6699625/index.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>174</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -586,24 +586,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-17_关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-22_关于进口哥斯达黎加鲜食甜瓜植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['实施法定检验以外进出口商品抽查检验的商品范围.doc', '海关总署关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.doc', '海关总署关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.pdf']</t>
+          <t>['地中海实蝇监测方案.docx', '海关总署关于进口哥斯达黎加鲜食甜瓜植物检疫要求的公告.doc', '海关总署关于进口哥斯达黎加鲜食甜瓜植物检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-17-150</t>
+          <t>海关总署-2025-08-22-174</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>关于进口马拉维夏威夷果检验检疫和卫生要求的公告</t>
+          <t>关于自海南自由贸易港进入中华人民共和国关境内其他地区的进口货物报关单填制要求的公告</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -613,27 +613,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603377/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6697213/index.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>173</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于进口马拉维夏威夷果检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-22_关于自海南自由贸易港进入中华人民共和国关境内其他地区的进口货物报关单填制要求的公告.zip</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['海关总署关于进口马拉维夏威夷果检验检疫和卫生要求的公告.doc', '海关总署关于进口马拉维夏威夷果检验检疫和卫生要求的公告.pdf']</t>
+          <t>['海关总署关于自海南自由贸易港进入中华人民共和国关境内其他地区的进口货物报关单填制要求的公告.doc', '海关总署关于自海南自由贸易港进入中华人民共和国关境内其他地区的进口货物报关单填制要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-26-136</t>
+          <t>海关总署-2025-08-22-173</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>关于进口冈比亚腰果检验检疫和卫生要求的公告</t>
+          <t>关于废止部分进出口食品类规范性文件的公告</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -668,52 +668,52 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603308/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6692272/index.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>171</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-25_关于进口冈比亚腰果检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-19_关于废止部分进出口食品类规范性文件的公告.zip</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['海关总署关于进口冈比亚腰果检验检疫和卫生要求的公告.doc', '海关总署关于进口冈比亚腰果检验检疫和卫生要求的公告.pdf']</t>
+          <t>['废止的部分海关进出口食品安全规范性文件目录.xls', '海关总署关于废止部分进出口食品类规范性文件的公告.doc', '海关总署关于废止部分进出口食品类规范性文件的公告.pdf']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-25-135</t>
+          <t>海关总署-2025-08-19-171</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>关于进口冈比亚花生植物检疫要求的公告</t>
+          <t>关于防止西班牙高致病性禽流感传入我国的公告</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -723,27 +723,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6630330/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6672741/index.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -751,24 +751,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-16_关于进口冈比亚花生植物检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-07_关于防止西班牙高致病性禽流感传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['海关总署关于进口冈比亚花生植物检疫要求的公告.doc', '海关总署关于进口冈比亚花生植物检疫要求的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止西班牙高致病性禽流感传入我国的公告.doc', '海关总署 农业农村部关于防止西班牙高致病性禽流感传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-16-149</t>
+          <t>海关总署-2025-08-07-170</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告</t>
+          <t>关于进口澳大利亚鲜食苹果植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -778,52 +778,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6629910/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6662652/index.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-16_关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-05_关于进口澳大利亚鲜食苹果植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['1.2025年第八届中国国际进口博览会海关通关须知.docx', '2.海关支持2025年第八届中国国际进口博览会便利措施.docx', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.doc', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.pdf']</t>
+          <t>['1.针对苹果蠹蛾的系统措施.docx', '2.针对美澳型褐腐病菌和果壳色单隔孢溃疡病菌的系统措施.docx', '3.出口前冷处理操作程序.docx', '4.运输途中冷处理操作程序.docx', '海关总署关于进口澳大利亚鲜食苹果植物检疫要求的公告.doc', '海关总署关于进口澳大利亚鲜食苹果植物检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-16-148</t>
+          <t>海关总署-2025-08-05-169</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>关于进口散装食用植物油贮存运输有关要求的公告</t>
+          <t>关于废止和宣布失效部分动植物检疫类规范性文件的公告</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -833,27 +833,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6627988/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6662641/index.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>168</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -861,24 +861,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-15_关于进口散装食用植物油贮存运输有关要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-01_关于废止和宣布失效部分动植物检疫类规范性文件的公告.zip</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['1.食品法典可接受的曾运货物清单.docx', '2.食品法典禁止的最近曾运货物清单.docx', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.doc', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.pdf']</t>
+          <t>['1.废止的动植物检疫类规范性文件目录.xlsx', '2.宣布失效的动植物检疫类规范性文件目录.xlsx', '海关总署关于废止和宣布失效部分动植物检疫类规范性文件的公告.doc', '海关总署关于废止和宣布失效部分动植物检疫类规范性文件的公告.pdf']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-15-147</t>
+          <t>海关总署-2025-08-01-168</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>关于开展报关单证及电子数据自助查询打印试点的公告</t>
+          <t>关于进口新西兰鹿茸鹿角检疫和卫生要求的公告</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -888,27 +888,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620888/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6662611/index.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>166</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -916,24 +916,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-08_关于开展报关单证及电子数据自助查询打印试点的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-29_关于进口新西兰鹿茸鹿角检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['海关总署关于开展报关单证及电子数据自助查询打印试点的公告.doc', '海关总署关于开展报关单证及电子数据自助查询打印试点的公告.pdf']</t>
+          <t>['海关总署关于进口新西兰鹿茸鹿角检疫和卫生要求的公告.doc', '海关总署关于进口新西兰鹿茸鹿角检疫和卫生要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-08-146</t>
+          <t>海关总署-2025-07-29-166</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
+          <t>关于实施中国—贝宁海关“经认证的经营者”（AEO）互认的公告</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -943,27 +943,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620785/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6648420/index.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -971,24 +971,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-03_关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-29_关于实施中国—贝宁海关“经认证的经营者”（AEO）互认的公告.zip</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.doc', '海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.pdf']</t>
+          <t>['海关总署关于实施中国—贝宁海关“经认证的经营者”（AEO）互认的公告.doc', '海关总署关于实施中国—贝宁海关“经认证的经营者”（AEO）互认的公告.pdf']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-03-145</t>
+          <t>海关总署-2025-07-29-164</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告</t>
+          <t>关于发布《中华人民共和国海关对上海东方枢纽国际商务合作区监管暂行办法》的公告</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -998,27 +998,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6610207/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6648416/index.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1026,24 +1026,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-02_关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-29_关于发布《中华人民共和国海关对上海东方枢纽国际商务合作区监管暂行办法》的公告.zip</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.doc', '海关总署 农业农村部关于防止罗马尼亚绵羊痘和山羊痘传入我国的公告.pdf']</t>
+          <t>['海关总署关于发布《中华人民共和国海关对上海东方枢纽国际商务合作区监管暂行办法》的公告.doc', '海关总署关于发布《中华人民共和国海关对上海东方枢纽国际商务合作区监管暂行办法》的公告.pdf']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-02-144</t>
+          <t>海关总署-2025-07-29-162</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告</t>
+          <t>关于中国柚子出口新西兰植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1053,52 +1053,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6608554/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6648412/index.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-01_关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-28_关于中国柚子出口新西兰植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['海关总署关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.doc', '海关总署关于扩大公路跨境快速通关改革适用范围至福州海关辖区的公告.pdf']</t>
+          <t>['新方关注的有害生物防控措施.docx', '海关总署关于中国柚子出口新西兰植物检疫要求的公告.doc', '海关总署关于中国柚子出口新西兰植物检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-01-143</t>
+          <t>海关总署-2025-07-28-165</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>关于废止和宣布失效部分规范性文件（三）的公告</t>
+          <t>关于实施中国—泰国海关“经认证的经营者”（AEO）互认的公告</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1108,52 +1108,52 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606691/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6644894/index.html</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>160</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-07-01_关于废止和宣布失效部分规范性文件（三）的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-25_关于实施中国—泰国海关“经认证的经营者”（AEO）互认的公告.zip</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['1.废止的规范性文件目录.xlsx', '2.宣布失效的规范性文件目录.xlsx', '海关总署关于废止和宣布失效部分规范性文件（三）的公告.doc', '海关总署关于废止和宣布失效部分规范性文件（三）的公告.pdf']</t>
+          <t>['海关总署关于实施中国—泰国海关“经认证的经营者”（AEO）互认的公告.doc', '海关总署关于实施中国—泰国海关“经认证的经营者”（AEO）互认的公告.pdf']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>海关总署-2025-07-01-142</t>
+          <t>海关总署-2025-07-25-160</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告</t>
+          <t>关于进口厄瓜多尔芒果植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1163,52 +1163,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606678/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6648408/index.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-30_关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-25_关于进口厄瓜多尔芒果植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['1.海关稽查、涉企贸易调查法律文书.doc', '2.海关核查法律文书.doc', '海关总署关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.doc', '海关总署关于公布海关稽查、涉企贸易调查、核查相关法律文书的公告.pdf']</t>
+          <t>['输华芒果热水处理要求.docx', '海关总署关于进口厄瓜多尔芒果植物检疫要求的公告.doc', '海关总署关于进口厄瓜多尔芒果植物检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-30-141</t>
+          <t>海关总署-2025-07-25-163</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>关于有条件恢复日本部分地区水产品进口的公告</t>
+          <t>关于发布《进口锂离子电池用再生黑粉原料检验规程》等64项行业标准的公告</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1218,52 +1218,52 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6602977/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6648404/index.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-29_关于有条件恢复日本部分地区水产品进口的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-25_关于发布《进口锂离子电池用再生黑粉原料检验规程》等64项行业标准的公告.zip</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['海关总署关于有条件恢复日本部分地区水产品进口的公告.doc', '海关总署关于有条件恢复日本部分地区水产品进口的公告.pdf']</t>
+          <t>['《进口锂离子电池用再生黑粉原料检验规程》等64项行业标准目录.xls', '海关总署关于发布《进口锂离子电池用再生黑粉原料检验规程》等64项行业标准的公告.doc', '海关总署关于发布《进口锂离子电池用再生黑粉原料检验规程》等64项行业标准的公告.pdf']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-29-140</t>
+          <t>海关总署-2025-07-25-161</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>关于调整加工贸易限制类商品保证金利率的公告</t>
+          <t xml:space="preserve">关于发布《中华人民共和国海关对海南自由贸易港监管办法》的公告 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1273,27 +1273,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6606668/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6638534/index.html</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>159</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1301,24 +1301,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-27_关于调整加工贸易限制类商品保证金利率的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-23_关于发布《中华人民共和国海关对海南自由贸易港监管办法》的公告.zip</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['海关总署关于调整加工贸易限制类商品保证金利率的公告.doc', '海关总署关于调整加工贸易限制类商品保证金利率的公告.pdf']</t>
+          <t>['海关总署关于发布《中华人民共和国海关对海南自由贸易港监管办法》的公告.doc', '海关总署关于发布《中华人民共和国海关对海南自由贸易港监管办法》的公告.pdf']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-27-139</t>
+          <t>海关总署-2025-07-23-159</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>关于优化出口货物申报前检验检疫申请的公告</t>
+          <t>关于发布《中华人民共和国海关对海南自由贸易港加工增值免关税货物税收征管暂行办法》的公告</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1328,27 +1328,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603400/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6638497/index.html</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1356,24 +1356,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于优化出口货物申报前检验检疫申请的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-23_关于发布《中华人民共和国海关对海南自由贸易港加工增值免关税货物税收征管暂行办法》的公告.zip</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['海关总署关于优化出口货物申报前检验检疫申请的公告.doc', '海关总署关于优化出口货物申报前检验检疫申请的公告.pdf']</t>
+          <t>['海关总署关于发布《中华人民共和国海关对海南自由贸易港加工增值免关税货物税收征管暂行办法》的公告.doc', '海关总署关于发布《中华人民共和国海关对海南自由贸易港加工增值免关税货物税收征管暂行办法》的公告.pdf']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-26-138</t>
+          <t>海关总署-2025-07-23-158</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>关于香港输内地乳品检验检疫和卫生要求的公告</t>
+          <t>关于进口刚果共和国花生植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1383,27 +1383,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603391/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6638489/index.html</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>157</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1411,24 +1411,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-26_关于香港输内地乳品检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-21_关于进口刚果共和国花生植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['海关总署关于香港输内地乳品检验检疫和卫生要求的公告.doc', '海关总署关于香港输内地乳品检验检疫和卫生要求的公告.pdf']</t>
+          <t>['海关总署关于进口刚果共和国花生植物检疫要求的公告.doc', '海关总署关于进口刚果共和国花生植物检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-26-137</t>
+          <t>海关总署-2025-07-21-157</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>关于防止阿尔及利亚绵羊痘和山羊痘传入我国的公告</t>
+          <t>关于进口新西兰野生水产品检验检疫和卫生要求的公告</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1438,27 +1438,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6603269/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6635219/index.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>154</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1466,24 +1466,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止阿尔及利亚绵羊痘和山羊痘传入我国的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-21_关于进口新西兰野生水产品检验检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止阿尔及利亚绵羊痘和山羊痘传入我国的公告.doc', '海关总署 农业农村部关于防止阿尔及利亚绵羊痘和山羊痘传入我国的公告.pdf']</t>
+          <t>['海关总署关于进口新西兰野生水产品检验检疫和卫生要求的公告.doc', '海关总署关于进口新西兰野生水产品检验检疫和卫生要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-23-134</t>
+          <t>海关总署-2025-07-21-154</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>关于防止西班牙、意大利痒病传入我国的公告</t>
+          <t>关于防止北马其顿东北大区新城疫传入我国的公告</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1493,27 +1493,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596542/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6635212/index.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>156</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1521,24 +1521,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止西班牙、意大利痒病传入我国的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-18_关于防止北马其顿东北大区新城疫传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止西班牙、意大利痒病传入我国的公告.doc', '海关总署 农业农村部关于防止西班牙、意大利痒病传入我国的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止北马其顿东北大区新城疫传入我国的公告.doc', '海关总署 农业农村部关于防止北马其顿东北大区新城疫传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-23-133</t>
+          <t>海关总署-2025-07-18-156</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>关于防止沙特阿拉伯、几内亚比绍小反刍兽疫传入我国的公告</t>
+          <t>关于解除沙特高致病性禽流感疫情禁令的公告</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1548,27 +1548,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596538/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6635203/index.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1576,24 +1576,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止沙特阿拉伯、几内亚比绍小反刍兽疫传入我国的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-18_关于解除沙特高致病性禽流感疫情禁令的公告.zip</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止沙特阿拉伯、几内亚比绍小反刍兽疫传入我国的公告.doc', '海关总署 农业农村部关于防止沙特阿拉伯、几内亚比绍小反刍兽疫传入我国的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于解除沙特高致病性禽流感疫情禁令的公告.doc', '海关总署 农业农村部关于解除沙特高致病性禽流感疫情禁令的公告.pdf']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-23-132</t>
+          <t>海关总署-2025-07-18-155</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>关于防止乌干达口蹄疫传入我国的公告</t>
+          <t>关于防止贝宁口蹄疫传入我国的公告</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1603,27 +1603,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596531/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6635199/index.html</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止乌干达口蹄疫传入我国的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-18_关于防止贝宁口蹄疫传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止乌干达口蹄疫传入我国的公告.doc', '海关总署 农业农村部关于防止乌干达口蹄疫传入我国的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止贝宁口蹄疫传入我国的公告.doc', '海关总署 农业农村部关于防止贝宁口蹄疫传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-23-131</t>
+          <t>海关总署-2025-07-18-153</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>关于防止乌干达、几内亚比绍新城疫传入我国的公告</t>
+          <t>关于防止利比里亚小反刍兽疫传入我国的公告</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1658,27 +1658,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596527/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6635195/index.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1686,24 +1686,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于防止乌干达、几内亚比绍新城疫传入我国的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-18_关于防止利比里亚小反刍兽疫传入我国的公告.zip</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止乌干达、几内亚比绍新城疫传入我国的公告.doc', '海关总署 农业农村部关于防止乌干达、几内亚比绍新城疫传入我国的公告.pdf']</t>
+          <t>['海关总署 农业农村部关于防止利比里亚小反刍兽疫传入我国的公告.doc', '海关总署 农业农村部关于防止利比里亚小反刍兽疫传入我国的公告.pdf']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-23-130</t>
+          <t>海关总署-2025-07-18-152</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>关于进口哈萨克斯坦甜菜粕检验检疫要求的公告</t>
+          <t>关于调整中国海关贸易景气调查样本企业的公告</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1713,52 +1713,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6596522/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6633724/index.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于进口哈萨克斯坦甜菜粕检验检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-18_关于调整中国海关贸易景气调查样本企业的公告.zip</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告.doc', '海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告.pdf']</t>
+          <t>['1.新一轮样本企业名单（出口）.xls', '2.新一轮样本企业名单（进口）.xls', '3.中国海关贸易景气统计调查表式.doc', '海关总署关于调整中国海关贸易景气调查样本企业的公告.doc', '海关总署关于调整中国海关贸易景气调查样本企业的公告.pdf']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-23-129</t>
+          <t>海关总署-2025-07-18-151</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告</t>
+          <t>关于开展2025年度法定检验以外进出口商品抽查检验工作的公告</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1768,52 +1768,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6594532/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6633110/index.html</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-17_关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.zip</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告.doc', '海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告.pdf']</t>
+          <t>['实施法定检验以外进出口商品抽查检验的商品范围.doc', '海关总署关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.doc', '海关总署关于开展2025年度法定检验以外进出口商品抽查检验工作的公告.pdf']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-23-128</t>
+          <t>海关总署-2025-07-17-150</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>关于启用进出境邮件“一站式”办理平台有关事宜的公告</t>
+          <t>关于进口冈比亚花生植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6594524/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6630330/index.html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>149</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1851,24 +1851,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-23_关于启用进出境邮件“一站式”办理平台有关事宜的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-16_关于进口冈比亚花生植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告.doc', '海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告.pdf']</t>
+          <t>['海关总署关于进口冈比亚花生植物检疫要求的公告.doc', '海关总署关于进口冈比亚花生植物检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-23-127</t>
+          <t>海关总署-2025-07-16-149</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>关于废止部分进口食品类规范性文件的公告</t>
+          <t>关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1878,52 +1878,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6593701/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6629910/index.html</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>148</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-19_关于废止部分进口食品类规范性文件的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-16_关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.zip</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['废止的规范性文件目录.xls', '海关总署关于废止部分进口食品类规范性文件的公告.doc', '海关总署关于废止部分进口食品类规范性文件的公告.pdf']</t>
+          <t>['1.2025年第八届中国国际进口博览会海关通关须知.docx', '2.海关支持2025年第八届中国国际进口博览会便利措施.docx', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.doc', '海关总署关于发布《2025年第八届中国国际进口博览会海关通关须知》和《海关支持2025年第八届中国国际进口博览会便利措施》的公告.pdf']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-19-126</t>
+          <t>海关总署-2025-07-16-148</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>关于防止阿尔巴尼亚小反刍兽疫传入我国的公告</t>
+          <t>关于进口散装食用植物油贮存运输有关要求的公告</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1933,52 +1933,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6593634/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6627988/index.html</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-17_关于防止阿尔巴尼亚小反刍兽疫传入我国的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-15_关于进口散装食用植物油贮存运输有关要求的公告.zip</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止阿尔巴尼亚小反刍兽疫传入我国的公告.doc', '海关总署 农业农村部关于防止阿尔巴尼亚小反刍兽疫传入我国的公告.pdf']</t>
+          <t>['1.食品法典可接受的曾运货物清单.docx', '2.食品法典禁止的最近曾运货物清单.docx', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.doc', '海关总署关于进口散装食用植物油贮存运输有关要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-17-125</t>
+          <t>海关总署-2025-07-15-147</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>关于防止拉脱维亚高致病性禽流感传入我国的公告</t>
+          <t>关于开展报关单证及电子数据自助查询打印试点的公告</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1988,27 +1988,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6593619/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620888/index.html</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>146</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2016,24 +2016,24 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-16_关于防止拉脱维亚高致病性禽流感传入我国的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-08_关于开展报关单证及电子数据自助查询打印试点的公告.zip</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['海关总署 农业农村部关于防止拉脱维亚高致病性禽流感传入我国的公告.doc', '海关总署 农业农村部关于防止拉脱维亚高致病性禽流感传入我国的公告.pdf']</t>
+          <t>['海关总署关于开展报关单证及电子数据自助查询打印试点的公告.doc', '海关总署关于开展报关单证及电子数据自助查询打印试点的公告.pdf']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-16-124</t>
+          <t>海关总署-2025-07-08-146</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>关于两用物项出口管制海关质疑有关事项的公告</t>
+          <t>关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2043,52 +2043,52 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6581237/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6620785/index.html</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>145</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-16_关于两用物项出口管制海关质疑有关事项的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-07-03_关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['1.两用物项出口管制海关质疑通知书.docx', '2.两用物项出口管制海关质疑组织鉴别结果告知书／组织鉴别结果告知书.docx', '海关总署关于两用物项出口管制海关质疑有关事项的公告.doc', '海关总署关于两用物项出口管制海关质疑有关事项的公告.pdf']</t>
+          <t>['海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.doc', '海关总署关于进口埃塞俄比亚豆粕检验检疫要求的公告.pdf']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>海关总署-2025-06-16-123</t>
+          <t>海关总署-2025-07-03-145</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>关于进口沙特养殖水产品检验检疫和卫生要求的公告</t>
+          <t>关于防止阿根廷高致病性禽流感传入我国的公告</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2098,45 +2098,485 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6582961/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6716399/index.html</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-09-03_关于防止阿根廷高致病性禽流感传入我国的公告.zip</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['海关总署 农业农村部关于防止阿根廷高致病性禽流感传入我国的公告.doc', '海关总署 农业农村部关于防止阿根廷高致病性禽流感传入我国的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>海关总署-2025-09-03-182</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>关于相关截止波长位移单模光纤商品编号申报要求的公告</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>海关总署</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6712759/index.html</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-09-03_关于相关截止波长位移单模光纤商品编号申报要求的公告.zip</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['海关总署关于相关截止波长位移单模光纤商品编号申报要求的公告.doc', '海关总署关于相关截止波长位移单模光纤商品编号申报要求的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>海关总署-2025-09-03-180</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>关于修改进口服装、水泥检验采信要求的公告</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>海关总署</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6712752/index.html</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>5</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\hgfg\2025-06-13_关于进口沙特养殖水产品检验检疫和卫生要求的公告.zip</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>['沙特阿拉伯王国新增输华养殖水产品信息表.doc', '海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告.doc', '海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告.pdf']</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>海关总署-2025-06-13-122</t>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-29_关于修改进口服装、水泥检验采信要求的公告.zip</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['实施采信的进口服装商品编码清单.doc', '海关总署关于修改进口服装、水泥检验采信要求的公告.doc', '海关总署关于修改进口服装、水泥检验采信要求的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>海关总署-2025-08-29-181</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>关于进口人造板检验采信要求的公告</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>海关总署</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6711161/index.html</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-27_关于进口人造板检验采信要求的公告.zip</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['1.实施采信的进口人造板商品编码清单.xlsx', '2.进口人造板检验采信相关检验项目、适用的技术规范及检验方法.doc', '3.“海关进出口商品检验采信机构目录管理”事项服务指南.docx', '4.质量安全符合性声明.docx', '海关总署关于进口人造板检验采信要求的公告.doc', '海关总署关于进口人造板检验采信要求的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>海关总署-2025-08-27-178</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>关于进口洪都拉斯烟叶植物检疫要求的公告</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>海关总署</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6711155/index.html</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-26_关于进口洪都拉斯烟叶植物检疫要求的公告.zip</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['海关总署关于进口洪都拉斯烟叶植物检疫要求的公告.doc', '海关总署关于进口洪都拉斯烟叶植物检疫要求的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>海关总署-2025-08-26-179</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>关于废止动物疫情类规范性文件的公告</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>海关总署</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6711147/index.html</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-25_关于废止动物疫情类规范性文件的公告.zip</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['废止的动物疫情类规范性文件目录.xlsx', '海关总署 农业农村部关于废止动物疫情类规范性文件的公告.doc', '海关总署 农业农村部关于废止动物疫情类规范性文件的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>海关总署-2025-08-25-177</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>关于解除西班牙绵羊痘和山羊痘疫情禁令的公告</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>海关总署</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6711121/index.html</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-25_关于解除西班牙绵羊痘和山羊痘疫情禁令的公告.zip</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['海关总署 农业农村部关于解除西班牙绵羊痘和山羊痘疫情禁令的公告.doc', '海关总署 农业农村部关于解除西班牙绵羊痘和山羊痘疫情禁令的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>海关总署-2025-08-25-176</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>关于防止塞内加尔口蹄疫传入我国的公告</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>海关总署</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6711109/index.html</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-25_关于防止塞内加尔口蹄疫传入我国的公告.zip</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['海关总署 农业农村部关于防止塞内加尔口蹄疫传入我国的公告.doc', '海关总署 农业农村部关于防止塞内加尔口蹄疫传入我国的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>海关总署-2025-08-25-175</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>关于中国鲜枣出口澳大利亚植物检疫要求的公告</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>海关总署</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302266/302267/6662627/index.html</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\hgfg\2025-08-01_关于中国鲜枣出口澳大利亚植物检疫要求的公告.zip</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['1.出口前冷处理操作程序.docx', '2.运输途中冷处理操作程序.docx', '3.针对桃蛀果蛾的系统措施.docx', '海关总署关于中国鲜枣出口澳大利亚植物检疫要求的公告.doc', '海关总署关于中国鲜枣出口澳大利亚植物检疫要求的公告.pdf']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>海关总署-2025-08-01-167</t>
         </is>
       </c>
     </row>
